--- a/Part 1/SessionNotes/SessionNotes_Project_PartA.xlsx
+++ b/Part 1/SessionNotes/SessionNotes_Project_PartA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yonatanbensimon/Documents/GitHub/ECSE429-testing-project/Part 1/SessionNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6225062-4E7B-584C-81BF-521F299006EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE61976B-A13E-904A-AD6D-9D1D7B12B3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>Method</t>
   </si>
@@ -49,6 +49,27 @@
   </si>
   <si>
     <t>Observed Behavior</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>DOCUMENTED</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>UNDOCUMENTED</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>DELETE</t>
   </si>
   <si>
     <t>Name</t>
@@ -81,6 +102,9 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>XML &amp; Screenshots</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -100,14 +124,151 @@
     <t>Exercise each capability identified with data typical to the intended use of the application.</t>
   </si>
   <si>
-    <t>The session focused primarly on identifying the main capabilities of PROJECT</t>
+    <t>The session focused primarly on identifying the main capabilities of PROJECT using the POSTMAN software</t>
+  </si>
+  <si>
+    <t>GET /projects</t>
+  </si>
+  <si>
+    <t>Returns all existing projects</t>
+  </si>
+  <si>
+    <t>Returned all exisiting projects</t>
+  </si>
+  <si>
+    <t>POST /projects</t>
+  </si>
+  <si>
+    <t>JSON Output</t>
+  </si>
+  <si>
+    <t>{"projects":[{"id":"1","title":"Office Work","completed":"false","active":"false","description":"","tasks":[{"id":"2"},{"id":"1"}]}]}</t>
+  </si>
+  <si>
+    <t>GET /projects when there is at least one project  in JSON</t>
+  </si>
+  <si>
+    <t>GET /projects when there is at least one project  in XML</t>
+  </si>
+  <si>
+    <t>&lt;projects&gt;&lt;project&gt;&lt;active&gt;false&lt;/active&gt;&lt;description/&gt;&lt;id&gt;1&lt;/id&gt;&lt;completed&gt;false&lt;/completed&gt;&lt;title&gt;Office Work&lt;/title&gt;&lt;tasks&gt;&lt;id&gt;2&lt;/id&gt;&lt;/tasks&gt;&lt;tasks&gt;&lt;id&gt;1&lt;/id&gt;&lt;/tasks&gt;&lt;/project&gt;&lt;/projects&gt;</t>
+  </si>
+  <si>
+    <t>Project succesfully created with title</t>
+  </si>
+  <si>
+    <t>Project created without title</t>
+  </si>
+  <si>
+    <t>DELETE /projects</t>
+  </si>
+  <si>
+    <t>Delete all projects</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">POST /projects, with only title as an attribute. Does not work. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bug</t>
+    </r>
+  </si>
+  <si>
+    <t>Retrieve a project with an id that does not exist</t>
+  </si>
+  <si>
+    <t>GET /projects/:id</t>
+  </si>
+  <si>
+    <t>{"errorMessages":["Could not find an instance with projects/4"]}</t>
+  </si>
+  <si>
+    <t>Method not allowed</t>
+  </si>
+  <si>
+    <t>HEAD /projects/:id</t>
+  </si>
+  <si>
+    <t>HEAD</t>
+  </si>
+  <si>
+    <t>200 status code</t>
+  </si>
+  <si>
+    <t>GET /projects/:id/tasks</t>
+  </si>
+  <si>
+    <t>Empty message</t>
+  </si>
+  <si>
+    <t>Returns tasks that are not part of the specified project</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Get all tasks of a project that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>does not exist</t>
+    </r>
+  </si>
+  <si>
+    <t>Error Message 404</t>
+  </si>
+  <si>
+    <t>GET /projects/:id/tasks/:id</t>
+  </si>
+  <si>
+    <t>Returns task with specific task id</t>
+  </si>
+  <si>
+    <t>Does not succesfuly return task with an existing id in an existing project</t>
+  </si>
+  <si>
+    <t>PUT /projects/:id</t>
+  </si>
+  <si>
+    <t>Succesfully modifed existing project description</t>
+  </si>
+  <si>
+    <t>Returned unmodified project</t>
+  </si>
+  <si>
+    <t>Modify description of an exisiting project</t>
+  </si>
+  <si>
+    <t>POST /projects/:id/categories</t>
+  </si>
+  <si>
+    <t>New category relationship created</t>
+  </si>
+  <si>
+    <t>Even though the correct attribute is included in the request, the API acts as if no attribute was ever included</t>
+  </si>
+  <si>
+    <t>400 status code; "title field is mandatory"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,6 +322,25 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="4">
@@ -219,7 +399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -275,11 +455,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -295,6 +487,28 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF7F7F7F"/>
           <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -337,30 +551,19 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
+          <fgColor rgb="FFFFAD00"/>
+          <bgColor rgb="FFFFAD00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFAD00"/>
-          <bgColor rgb="FFFFAD00"/>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -376,21 +579,37 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFAD00"/>
+          <bgColor rgb="FFFFAD00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFAD00"/>
-          <bgColor rgb="FFFFAD00"/>
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -413,8 +632,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -423,33 +642,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFB764FF"/>
           <bgColor rgb="FFB764FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -747,20 +939,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
-    <col min="7" max="7" width="24.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="7" max="7" width="53.6640625" customWidth="1"/>
+    <col min="8" max="8" width="34.5" customWidth="1"/>
     <col min="9" max="9" width="17.1640625" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
     <col min="11" max="11" width="11.1640625" customWidth="1"/>
@@ -778,104 +970,272 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="H2" s="16"/>
+      <c r="I2" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="A3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="16"/>
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="A5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="G5" s="16"/>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="16"/>
+      <c r="A6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="H6" s="18"/>
+      <c r="I6" s="26" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="A7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="G7" s="16"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="17"/>
+    </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="17"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="17"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="337" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
+    <row r="11" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="17"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="349" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -3263,7 +3623,7 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B7">
+  <conditionalFormatting sqref="B1:B11">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"PATCH"</formula>
     </cfRule>
@@ -3286,7 +3646,7 @@
       <formula>"PUT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C7">
+  <conditionalFormatting sqref="C1:C11">
     <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>"DOCUMENTED"</formula>
     </cfRule>
@@ -3294,80 +3654,80 @@
       <formula>"UNDOCUMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9 C11:C17 C19:C25 C27:C33 C35:C41 C43:C1000">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+  <conditionalFormatting sqref="C12:C17 C19:C25 C27:C33 C35:C41 C43:C1000">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+      <formula>"PATCH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"HEAD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
-      <formula>"PUT"</formula>
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+      <formula>"OPTIONS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
-      <formula>"GET"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>"PATCH"</formula>
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+      <formula>"DELETE"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>"POST"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
-      <formula>"OPTIONS"</formula>
+    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
+      <formula>"GET"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
-      <formula>"DELETE"</formula>
+    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
+      <formula>"PUT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D7 E9 E11:E17 E19:E25 E27:E33 E35:E41 E43:E49">
+  <conditionalFormatting sqref="E12:E17 E19:E25 E27:E33 E35:E41 E43:E49 D2:D11">
     <cfRule type="cellIs" dxfId="9" priority="28" stopIfTrue="1" operator="equal">
       <formula>"method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9 D11:D17 D19:D25 D27:D33 D35:D41 D43:D1000">
-    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
+  <conditionalFormatting sqref="D12:D17 D19:D25 D27:D33 D35:D41 D43:D1000">
+    <cfRule type="cellIs" dxfId="8" priority="22" operator="equal">
+      <formula>"DOCUMENTED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="23" operator="equal">
       <formula>"UNDOCUMENTED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
-      <formula>"DOCUMENTED"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E7">
+  <conditionalFormatting sqref="E1:E11">
     <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F17 F19:F25 F27:F33 F35:F41 F43:F1000">
+    <cfRule type="cellIs" dxfId="3" priority="24" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="25" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9 F11:F17 F19:F25 F27:F33 F35:F41 F43:F1000">
-    <cfRule type="cellIs" dxfId="3" priority="25" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G17 G19:G25 G27:G33 G35:G41 G43:G49">
+  <conditionalFormatting sqref="G12:G17 G19:G25 G27:G33 G35:G41 G43:G49">
     <cfRule type="expression" dxfId="0" priority="27">
-      <formula>$E11="method not allowed"</formula>
+      <formula>$E12="method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F43:F49 F11:F17 F19:F25 F27:F33 F35:F41 E2:E7 F9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F43:F49 E2:E11 F19:F25 F27:F33 F35:F41 F12:F17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"YES,NO,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C43:C49 C11:C17 C19:C25 C27:C33 C35:C41 B2:B7 C9" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C43:C49 B2:B11 C19:C25 C27:C33 C35:C41 C12:C17" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"GET,PUT,POST,DELETE,OPTIONS,HEAD,PATCH"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D43:D49 D11:D17 D19:D25 D27:D33 D35:D41 C2:C7 D9" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D43:D49 C2:C11 D19:D25 D27:D33 D35:D41 D12:D17" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"UNDOCUMENTED,DOCUMENTED"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E43:E49 E11:E17 E19:E25 E27:E33 E35:E41 D2:D7 E9" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E43:E49 D2:D11 E19:E25 E27:E33 E35:E41 E12:E17" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"method not allowed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3384,7 +3744,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="139" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3395,10 +3755,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3409,7 +3769,7 @@
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" s="8">
         <v>261104350</v>
@@ -3433,7 +3793,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3455,7 +3815,7 @@
     </row>
     <row r="6" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3467,7 +3827,7 @@
     </row>
     <row r="7" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3479,7 +3839,7 @@
     </row>
     <row r="8" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3491,7 +3851,7 @@
     </row>
     <row r="9" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3533,7 +3893,7 @@
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3553,9 +3913,9 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3607,7 +3967,7 @@
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3638,7 +3998,7 @@
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>

--- a/Part 1/SessionNotes/SessionNotes_Project_PartA.xlsx
+++ b/Part 1/SessionNotes/SessionNotes_Project_PartA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yonatanbensimon/Documents/GitHub/ECSE429-testing-project/Part 1/SessionNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE61976B-A13E-904A-AD6D-9D1D7B12B3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CB743B-FF10-9A45-B521-9666944F62DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>Method</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>Exercise each capability identified with data typical to the intended use of the application.</t>
-  </si>
-  <si>
-    <t>The session focused primarly on identifying the main capabilities of PROJECT using the POSTMAN software</t>
   </si>
   <si>
     <t>GET /projects</t>
@@ -262,6 +259,15 @@
   </si>
   <si>
     <t>400 status code; "title field is mandatory"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The main concern is that it seems that the program does not process attributes correctely. For instance, it does not correctly detect the title attribute when creating a new project. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The session focused primarly on identifying the main capabilities of PROJECT using the POSTMAN software. There were many unexpected results/bug that were found during this session, particularly in the handling of attributes </t>
+  </si>
+  <si>
+    <t>A test to determine if it is specifically the "title" attribute that is faulty, or all attribute that are faulty. As such, we could do tests with different attributes, and see which test(s) outputs the correct information, if any.</t>
   </si>
 </sst>
 </file>
@@ -399,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -463,6 +469,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -939,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -985,12 +994,12 @@
         <v>21</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>4</v>
@@ -999,25 +1008,25 @@
         <v>5</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="16"/>
-      <c r="I2" s="27" t="s">
-        <v>33</v>
+      <c r="I2" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>4</v>
@@ -1026,24 +1035,24 @@
         <v>5</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>9</v>
@@ -1052,22 +1061,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>10</v>
@@ -1076,20 +1085,20 @@
         <v>8</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>4</v>
@@ -1098,47 +1107,47 @@
         <v>5</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>48</v>
+      <c r="D7" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>4</v>
@@ -1146,23 +1155,23 @@
       <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>50</v>
+      <c r="D8" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>4</v>
@@ -1170,24 +1179,24 @@
       <c r="C9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>55</v>
+      <c r="D9" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>7</v>
@@ -1195,24 +1204,24 @@
       <c r="C10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>58</v>
+      <c r="D10" s="30" t="s">
+        <v>57</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>9</v>
@@ -1220,17 +1229,17 @@
       <c r="C11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>62</v>
+      <c r="D11" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="30" t="s">
         <v>63</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="7"/>
@@ -3741,10 +3750,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="139" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3913,9 +3922,9 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="146" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3986,8 +3995,10 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:8" ht="110" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3997,9 +4008,6 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4033,8 +4041,15 @@
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Part 1/SessionNotes/SessionNotes_Project_PartA.xlsx
+++ b/Part 1/SessionNotes/SessionNotes_Project_PartA.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yonatanbensimon/Documents/GitHub/ECSE429-testing-project/Part 1/SessionNotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CB743B-FF10-9A45-B521-9666944F62DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D02FAA3-2E5F-0D41-B779-B68CDBC133C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>Method</t>
   </si>
@@ -247,18 +246,6 @@
   </si>
   <si>
     <t>Modify description of an exisiting project</t>
-  </si>
-  <si>
-    <t>POST /projects/:id/categories</t>
-  </si>
-  <si>
-    <t>New category relationship created</t>
-  </si>
-  <si>
-    <t>Even though the correct attribute is included in the request, the API acts as if no attribute was ever included</t>
-  </si>
-  <si>
-    <t>400 status code; "title field is mandatory"</t>
   </si>
   <si>
     <t xml:space="preserve">The main concern is that it seems that the program does not process attributes correctely. For instance, it does not correctly detect the title attribute when creating a new project. </t>
@@ -405,7 +392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -452,17 +439,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -472,15 +453,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -946,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -993,7 +970,7 @@
       <c r="H1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1016,11 +993,11 @@
       <c r="F2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="22" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="16"/>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1043,7 +1020,7 @@
       <c r="F3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="22" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="16" t="s">
@@ -1060,7 +1037,7 @@
       <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -1069,7 +1046,7 @@
       <c r="F4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="22" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="16"/>
@@ -1084,7 +1061,7 @@
       <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="23" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -1106,7 +1083,7 @@
       <c r="C6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="14" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -1115,11 +1092,11 @@
       <c r="F6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="22" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="18"/>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1133,7 +1110,7 @@
       <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="26" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -1155,7 +1132,7 @@
       <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="26" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -1164,7 +1141,7 @@
       <c r="F8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="22" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="17"/>
@@ -1179,7 +1156,7 @@
       <c r="C9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="26" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -1188,7 +1165,7 @@
       <c r="F9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="22" t="s">
         <v>55</v>
       </c>
       <c r="H9" s="17"/>
@@ -1204,7 +1181,7 @@
       <c r="C10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="27" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -1213,47 +1190,31 @@
       <c r="F10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="22" t="s">
         <v>59</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="17"/>
+    <row r="11" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="348" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1262,7 +1223,7 @@
       <c r="G13" s="10"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1277,7 +1238,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="11"/>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1287,51 +1248,51 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="11"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="11"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="2:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+    <row r="18" spans="2:9" ht="295" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="10"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="2:9" ht="295" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="11"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="313" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="10"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="2:9" ht="313" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="13"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="11"/>
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1340,8 +1301,8 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="11"/>
-      <c r="I22" s="7"/>
+      <c r="G22" s="10"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
@@ -1349,7 +1310,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
+      <c r="G23" s="11"/>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1359,24 +1320,24 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="11"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="11"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="2:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="2:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="11"/>
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1397,21 +1358,21 @@
       <c r="G28" s="11"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" ht="253" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="11"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="2:9" ht="253" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="12"/>
+      <c r="G29" s="10"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="10"/>
       <c r="I30" s="6"/>
     </row>
@@ -1421,8 +1382,8 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-      <c r="I31" s="6"/>
+      <c r="G31" s="11"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="9"/>
@@ -1433,49 +1394,49 @@
       <c r="G32" s="11"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="11"/>
+    <row r="33" spans="2:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="2:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+    <row r="34" spans="2:9" ht="311" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="2:9" ht="311" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
+      <c r="G35" s="11"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" ht="294" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="10"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="2:9" ht="294" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="11"/>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1484,8 +1445,8 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="11"/>
-      <c r="I38" s="7"/>
+      <c r="G38" s="10"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="9"/>
@@ -1493,7 +1454,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="11"/>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1503,24 +1464,24 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="11"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="11"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="11"/>
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1541,21 +1502,21 @@
       <c r="G44" s="11"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" ht="230" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="11"/>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="2:9" ht="230" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="12"/>
+      <c r="G45" s="10"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="12"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="10"/>
       <c r="I46" s="6"/>
     </row>
@@ -1565,8 +1526,8 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="10"/>
-      <c r="I47" s="6"/>
+      <c r="G47" s="11"/>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="9"/>
@@ -1578,12 +1539,12 @@
       <c r="I48" s="7"/>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="11"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
       <c r="I49" s="7"/>
     </row>
     <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1593,7 +1554,6 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="I50" s="7"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
@@ -2827,14 +2787,7 @@
       <c r="F204" s="8"/>
       <c r="G204" s="8"/>
     </row>
-    <row r="205" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="8"/>
-      <c r="C205" s="8"/>
-      <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="8"/>
-      <c r="G205" s="8"/>
-    </row>
+    <row r="205" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="206" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="207" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="208" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3629,10 +3582,9 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B11">
+  <conditionalFormatting sqref="B1:B10">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"PATCH"</formula>
     </cfRule>
@@ -3655,7 +3607,7 @@
       <formula>"PUT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C11">
+  <conditionalFormatting sqref="C1:C10">
     <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>"DOCUMENTED"</formula>
     </cfRule>
@@ -3663,7 +3615,7 @@
       <formula>"UNDOCUMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C17 C19:C25 C27:C33 C35:C41 C43:C1000">
+  <conditionalFormatting sqref="C11:C16 C18:C24 C26:C32 C34:C40 C42:C999">
     <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>"PATCH"</formula>
     </cfRule>
@@ -3686,12 +3638,12 @@
       <formula>"PUT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E17 E19:E25 E27:E33 E35:E41 E43:E49 D2:D11">
+  <conditionalFormatting sqref="D2:D10 E11:E16 E18:E24 E26:E32 E34:E40 E42:E48">
     <cfRule type="cellIs" dxfId="9" priority="28" stopIfTrue="1" operator="equal">
       <formula>"method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D17 D19:D25 D27:D33 D35:D41 D43:D1000">
+  <conditionalFormatting sqref="D11:D16 D18:D24 D26:D32 D34:D40 D42:D999">
     <cfRule type="cellIs" dxfId="8" priority="22" operator="equal">
       <formula>"DOCUMENTED"</formula>
     </cfRule>
@@ -3699,7 +3651,7 @@
       <formula>"UNDOCUMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E11">
+  <conditionalFormatting sqref="E1:E10">
     <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
@@ -3710,7 +3662,7 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F17 F19:F25 F27:F33 F35:F41 F43:F1000">
+  <conditionalFormatting sqref="F11:F16 F18:F24 F26:F32 F34:F40 F42:F999">
     <cfRule type="cellIs" dxfId="3" priority="24" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
@@ -3721,22 +3673,22 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G17 G19:G25 G27:G33 G35:G41 G43:G49">
+  <conditionalFormatting sqref="G11:G16 G18:G24 G26:G32 G34:G40 G42:G48">
     <cfRule type="expression" dxfId="0" priority="27">
-      <formula>$E12="method not allowed"</formula>
+      <formula>$E11="method not allowed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F43:F49 E2:E11 F19:F25 F27:F33 F35:F41 F12:F17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F42:F48 E2:E10 F18:F24 F26:F32 F34:F40 F11:F16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"YES,NO,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C43:C49 B2:B11 C19:C25 C27:C33 C35:C41 C12:C17" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C42:C48 B2:B10 C18:C24 C26:C32 C34:C40 C11:C16" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"GET,PUT,POST,DELETE,OPTIONS,HEAD,PATCH"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D43:D49 C2:C11 D19:D25 D27:D33 D35:D41 D12:D17" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D42:D48 C2:C10 D18:D24 D26:D32 D34:D40 D11:D16" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"UNDOCUMENTED,DOCUMENTED"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E43:E49 D2:D11 E19:E25 E27:E33 E35:E41 E12:E17" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E42:E48 D2:D10 E18:E24 E26:E32 E34:E40 E11:E16" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"method not allowed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3752,7 +3704,7 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="125" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -3835,7 +3787,7 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="2"/>
@@ -3847,7 +3799,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2"/>
@@ -3859,7 +3811,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2"/>
@@ -3923,8 +3875,8 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="146" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>65</v>
+      <c r="A15" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3996,8 +3948,8 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="110" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>64</v>
+      <c r="A22" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4047,8 +3999,8 @@
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
-        <v>66</v>
+      <c r="A28" s="25" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
